--- a/알고리즘/욕 데이터/word_list.xlsx
+++ b/알고리즘/욕 데이터/word_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJAISCHOOL\Desktop\movie_creazy\Untitled Folder\욕 데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJAISCHOOL\Desktop\X_filter\알고리즘\욕 데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB2A50A-E588-4065-A938-84983464D188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E3B25-02B3-4ADD-8843-49EE1AD39CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3416,10 +3416,6 @@
     <t>^^ㅣ빨</t>
   </si>
   <si>
-    <t xml:space="preserve"> WORD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>대체어</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3548,6 +3544,10 @@
   </si>
   <si>
     <t>얼굴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3920,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3931,10 +3931,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1" t="s">
         <v>1126</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -5722,7 +5722,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.4">
@@ -7060,7 +7060,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.4">
@@ -7068,7 +7068,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.4">
@@ -7076,7 +7076,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.4">
@@ -7094,7 +7094,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.4">
@@ -7112,7 +7112,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.4">
@@ -7280,7 +7280,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.4">
@@ -7310,7 +7310,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A672" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.4">
@@ -7393,7 +7393,7 @@
         <v>685</v>
       </c>
       <c r="B688" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.4">
@@ -7428,7 +7428,7 @@
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A695" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.4">
@@ -7586,7 +7586,7 @@
         <v>722</v>
       </c>
       <c r="B726" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.4">
@@ -7594,7 +7594,7 @@
         <v>723</v>
       </c>
       <c r="B727" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.4">
@@ -7602,7 +7602,7 @@
         <v>724</v>
       </c>
       <c r="B728" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.4">
@@ -7615,7 +7615,7 @@
         <v>726</v>
       </c>
       <c r="B730" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.4">
@@ -7868,7 +7868,7 @@
         <v>776</v>
       </c>
       <c r="B780" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.4">
@@ -7876,7 +7876,7 @@
         <v>777</v>
       </c>
       <c r="B781" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.4">
@@ -8609,7 +8609,7 @@
         <v>923</v>
       </c>
       <c r="B927" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.4">
@@ -8627,7 +8627,7 @@
         <v>926</v>
       </c>
       <c r="B930" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.4">
@@ -8635,7 +8635,7 @@
         <v>927</v>
       </c>
       <c r="B931" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.4">
@@ -8643,7 +8643,7 @@
         <v>928</v>
       </c>
       <c r="B932" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.4">
@@ -8651,7 +8651,7 @@
         <v>929</v>
       </c>
       <c r="B933" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.4">
@@ -8659,7 +8659,7 @@
         <v>930</v>
       </c>
       <c r="B934" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.4">
@@ -9017,7 +9017,7 @@
         <v>1001</v>
       </c>
       <c r="B1005" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.4">
@@ -9330,7 +9330,7 @@
         <v>1063</v>
       </c>
       <c r="B1067" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.4">
@@ -9338,7 +9338,7 @@
         <v>1064</v>
       </c>
       <c r="B1068" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.4">
@@ -9346,7 +9346,7 @@
         <v>1065</v>
       </c>
       <c r="B1069" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.4">
@@ -9354,7 +9354,7 @@
         <v>1066</v>
       </c>
       <c r="B1070" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.4">
@@ -9654,130 +9654,130 @@
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1130" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1131" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1132" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1133" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1134" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1135" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1136" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B1136" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1137" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1138" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1139" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1140" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1141" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1142" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1143" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1144" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1145" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1146" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1147" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1148" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1149" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1150" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1151" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1152" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1153" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1154" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
